--- a/Uk-International Objects.xlsx
+++ b/Uk-International Objects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="28800" windowHeight="16560" tabRatio="500" firstSheet="19" activeTab="28"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" firstSheet="28" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,16 @@
     <sheet name="ISR Feed" sheetId="30" r:id="rId27"/>
     <sheet name="Incident" sheetId="31" r:id="rId28"/>
     <sheet name="Infield Active Seller" sheetId="32" r:id="rId29"/>
+    <sheet name="Mass Refund" sheetId="33" r:id="rId30"/>
+    <sheet name="NOW TV MPP Account" sheetId="34" r:id="rId31"/>
+    <sheet name="NOW TV Marketing Preference" sheetId="35" r:id="rId32"/>
+    <sheet name="NOW TV PPV Transaction" sheetId="36" r:id="rId33"/>
+    <sheet name="Offer" sheetId="37" r:id="rId34"/>
+    <sheet name="Offer Group" sheetId="38" r:id="rId35"/>
+    <sheet name="Order" sheetId="39" r:id="rId36"/>
+    <sheet name="Order Event" sheetId="40" r:id="rId37"/>
+    <sheet name="Partner Event" sheetId="41" r:id="rId38"/>
+    <sheet name="Q &amp; C Score" sheetId="42" r:id="rId39"/>
   </sheets>
   <definedNames>
     <definedName name="ActionPickList">'Action Long Picklist Values'!$A$2:$A$53</definedName>
@@ -55,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="1149">
   <si>
     <t>Field Name</t>
   </si>
@@ -2287,12 +2297,1375 @@
   <si>
     <t>Text(100) (Unique Case Insensitive)</t>
   </si>
+  <si>
+    <t>Consumption End Time</t>
+  </si>
+  <si>
+    <t>Consumption Start Time</t>
+  </si>
+  <si>
+    <t>Spark Id</t>
+  </si>
+  <si>
+    <t>Text(25) (External ID) (Unique Case Insensitive)</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Currency(14, 4)</t>
+  </si>
+  <si>
+    <t>Total Number of Refunds</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Lookup(Account)</t>
+  </si>
+  <si>
+    <t>MPP Account Id</t>
+  </si>
+  <si>
+    <t>MPP Created At</t>
+  </si>
+  <si>
+    <t>MPP Last Updated At</t>
+  </si>
+  <si>
+    <t>Text(255) (External ID)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sky Marketing Opt Out</t>
+  </si>
+  <si>
+    <t>Third Party Marketing Opt Out</t>
+  </si>
+  <si>
+    <t>This field is only a placeholder used for reporting number of distinct subscriptions</t>
+  </si>
+  <si>
+    <t>Activation Date</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>Eligible For Refund</t>
+  </si>
+  <si>
+    <t>Gross Amount</t>
+  </si>
+  <si>
+    <t>Offer Type Name</t>
+  </si>
+  <si>
+    <t>Order Description</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Pass Expiry Date</t>
+  </si>
+  <si>
+    <t>Pass Offer Type</t>
+  </si>
+  <si>
+    <t>Purchase Date</t>
+  </si>
+  <si>
+    <t>Refund Requested</t>
+  </si>
+  <si>
+    <t>Sports Pass</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>VAT Amount</t>
+  </si>
+  <si>
+    <t>Viewing Period End</t>
+  </si>
+  <si>
+    <t>Viewing Period Start</t>
+  </si>
+  <si>
+    <t>Voucher Code</t>
+  </si>
+  <si>
+    <t>How the customer pays for their now tv subscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates how the customer pays for their NOW TV subscription
+</t>
+  </si>
+  <si>
+    <t>NOW TV associated offer ID</t>
+  </si>
+  <si>
+    <t>NOW TV associated offer name</t>
+  </si>
+  <si>
+    <t>NOW TV associated offer type</t>
+  </si>
+  <si>
+    <t>The product name from MPP/Platform, i.e. SPORT_PASS_DAY / WEEK / MONTH</t>
+  </si>
+  <si>
+    <t>Referrer of the NOW TV order</t>
+  </si>
+  <si>
+    <t>Shows the status of the sports pass - Available, In Use, Used. Uses consumption dates to work this out.</t>
+  </si>
+  <si>
+    <t>Voucher code related to a particular NOW TV offer</t>
+  </si>
+  <si>
+    <t>Apple
+NowTV MPP
+NowTV
+Vodafone</t>
+  </si>
+  <si>
+    <t>30 Day Free Trial</t>
+  </si>
+  <si>
+    <t>Calendar Month Free Trial</t>
+  </si>
+  <si>
+    <t>Content Type</t>
+  </si>
+  <si>
+    <t>Display on Cases</t>
+  </si>
+  <si>
+    <t>Free Trial</t>
+  </si>
+  <si>
+    <t>Fulfilment</t>
+  </si>
+  <si>
+    <t>Fulfilment From Date</t>
+  </si>
+  <si>
+    <t>IAF Eligibility Days</t>
+  </si>
+  <si>
+    <t>Number(3, 0)</t>
+  </si>
+  <si>
+    <t>Max Active Vouchers</t>
+  </si>
+  <si>
+    <t>MPP Created Date</t>
+  </si>
+  <si>
+    <t>MPP End Date</t>
+  </si>
+  <si>
+    <t>MPP Offer</t>
+  </si>
+  <si>
+    <t>MPP Offer Type</t>
+  </si>
+  <si>
+    <t>MPP Start Date</t>
+  </si>
+  <si>
+    <t>Number of Vochers Offered</t>
+  </si>
+  <si>
+    <t>Picklist (Multi-Select)</t>
+  </si>
+  <si>
+    <t>Offer Group</t>
+  </si>
+  <si>
+    <t>Lookup(Offer Group)</t>
+  </si>
+  <si>
+    <t>Offer ID (numeric)</t>
+  </si>
+  <si>
+    <t>Offer Period Length</t>
+  </si>
+  <si>
+    <t>Offer Period Unit</t>
+  </si>
+  <si>
+    <t>Offer Price</t>
+  </si>
+  <si>
+    <t>Currency(16, 2)</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Part of Box Bundle</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>Promotion/Offer Description</t>
+  </si>
+  <si>
+    <t>Promotion Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Redeem By</t>
+  </si>
+  <si>
+    <t>Redemption URL</t>
+  </si>
+  <si>
+    <t>Re-evaluate Status Workflow</t>
+  </si>
+  <si>
+    <t>Re Issuable</t>
+  </si>
+  <si>
+    <t>Staff / VIP</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Time-based Workflow - Active</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Usage Type</t>
+  </si>
+  <si>
+    <t>Winback</t>
+  </si>
+  <si>
+    <t>Type of Content that is included with the offer</t>
+  </si>
+  <si>
+    <t>Allows offer/promotions to be linked to Cases and visible via the Lookup on Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Checked if this offer/promotion can be linked to Cases</t>
+  </si>
+  <si>
+    <t>Displays whether the customer is on a 30 day free trial or Calendar month free trial based on the two fields</t>
+  </si>
+  <si>
+    <t>Number of days for which referee has to be active on this offer, for the IAF reward to apply</t>
+  </si>
+  <si>
+    <t>Date/Time the offer was created on MPP</t>
+  </si>
+  <si>
+    <t>The date the voucher codes are valid until. The codes can only be used before this date.</t>
+  </si>
+  <si>
+    <t>Indicates that this is an offer that also exists in MPP</t>
+  </si>
+  <si>
+    <t>Offer exists in MPP?</t>
+  </si>
+  <si>
+    <t>Offer Type classification within MPP</t>
+  </si>
+  <si>
+    <t>The date the voucher codes are valid from. The codes can only be used after this date.</t>
+  </si>
+  <si>
+    <t>Normal
+Gift Card
+Introduce A Friend
+Stack</t>
+  </si>
+  <si>
+    <t>Strores the MPP Offer ID</t>
+  </si>
+  <si>
+    <t>Numeric version of the offer ID</t>
+  </si>
+  <si>
+    <t>days
+months</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Close 
+Free
+Discount
+Full Price</t>
+  </si>
+  <si>
+    <t>CF
+LC
+EF
+AP
+Stream 20
+CK
+Social
+Email
+SP
+MarketingOps</t>
+  </si>
+  <si>
+    <t>yes no</t>
+  </si>
+  <si>
+    <t>SABB-MOVS
+SABB-ENTS
+SPORTS_PASS_DAY
+SPORTS_PASS_WEEK
+XBOX
+PSN
+PIZZA
+£5 Edenred
+£10 Edenred
+£15 Edenred
+£20 Edenred
+Naked Wines</t>
+  </si>
+  <si>
+    <t>Used to activate the time-based-workflow trigger after a user changes the start and end dates. 
+Should not be seen on page layout and is used in the background. (step one of process)</t>
+  </si>
+  <si>
+    <t>Indicated whether vouchers associated with the offer is re-issuable or not</t>
+  </si>
+  <si>
+    <t>Status of the offer. 
+Status Value 'Live' is referenced in the Code. Please make sure code is corrected when updating/changing this value.</t>
+  </si>
+  <si>
+    <t>If switched on, the time-based workflow that sets the start and end dates is on. By default when a record is created, this is checked. If date is changed, this is unchecked and checked again to re-trigger the start and end dates in accordance with the new data.</t>
+  </si>
+  <si>
+    <t>Usage type in MPP</t>
+  </si>
+  <si>
+    <t>Yes
+No
+N/A</t>
+  </si>
+  <si>
+    <t>Entertainment
+Movies
+Sports Day
+Sports Week
+Sports Month
+Box Only
+Box Bundle</t>
+  </si>
+  <si>
+    <t>Movies
+Entertainment</t>
+  </si>
+  <si>
+    <t>Not Started
+Live
+Closed
+Disabled</t>
+  </si>
+  <si>
+    <t>Not Unique One Use
+Unique To User Use Once
+Not Unique Use Many</t>
+  </si>
+  <si>
+    <t>Offer Group Name</t>
+  </si>
+  <si>
+    <t>Amount Charged</t>
+  </si>
+  <si>
+    <t>Number(15, 2)</t>
+  </si>
+  <si>
+    <t>Building Name</t>
+  </si>
+  <si>
+    <t>Building Number</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
+    <t>Days Between Order Creation &amp; Dispatch</t>
+  </si>
+  <si>
+    <t>Dispatch Event Count</t>
+  </si>
+  <si>
+    <t>Roll-Up Summary (COUNT Order Event)</t>
+  </si>
+  <si>
+    <t>Dispatch Tracking Code</t>
+  </si>
+  <si>
+    <t>EL Order Contact</t>
+  </si>
+  <si>
+    <t>EL Order Dispatch Date</t>
+  </si>
+  <si>
+    <t>Email Opt Out</t>
+  </si>
+  <si>
+    <t>IAS User Name</t>
+  </si>
+  <si>
+    <t>Infield Active Seller</t>
+  </si>
+  <si>
+    <t>Lookup(Infield Active Seller)</t>
+  </si>
+  <si>
+    <t>Is 2.0 Customer?</t>
+  </si>
+  <si>
+    <t>Formula (Checkbox) </t>
+  </si>
+  <si>
+    <t>Microsite Unique ID</t>
+  </si>
+  <si>
+    <t>MPP Order Number</t>
+  </si>
+  <si>
+    <t>NOW TV Group</t>
+  </si>
+  <si>
+    <t>Old Order Ref</t>
+  </si>
+  <si>
+    <t>Order Created Date</t>
+  </si>
+  <si>
+    <t>Order Event Count</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Product SKU</t>
+  </si>
+  <si>
+    <t>Lookup(Product)</t>
+  </si>
+  <si>
+    <t>Product Type_h</t>
+  </si>
+  <si>
+    <t>Product Type Check 1</t>
+  </si>
+  <si>
+    <t>Product Type Check 2</t>
+  </si>
+  <si>
+    <t>Product Type Check 3</t>
+  </si>
+  <si>
+    <t>Re-Order Reference</t>
+  </si>
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Lookup(Retailer)</t>
+  </si>
+  <si>
+    <t>Retailer Order Identifier</t>
+  </si>
+  <si>
+    <t>First line of the customers address</t>
+  </si>
+  <si>
+    <t>Second line of the customers address</t>
+  </si>
+  <si>
+    <t>The amount the customer has paid for the order</t>
+  </si>
+  <si>
+    <t>The name of the building where the customer lives, if there is one</t>
+  </si>
+  <si>
+    <t>The number of the building where the customer lives, if there is one</t>
+  </si>
+  <si>
+    <t>The city the customer lives in</t>
+  </si>
+  <si>
+    <t>When selected brings up the customer who purchased the box</t>
+  </si>
+  <si>
+    <t>The country the customer lives in</t>
+  </si>
+  <si>
+    <t>This indicates if the customer ordering the box is a new or existing NOW TV Customer. If an existing customer was not signed in to NOW TV when they purchased the box, this will show as New Customer</t>
+  </si>
+  <si>
+    <t>This number can be used to trace the order once dispatched</t>
+  </si>
+  <si>
+    <t>The full and complete address of the customer</t>
+  </si>
+  <si>
+    <t>The date and time the order was dispatched</t>
+  </si>
+  <si>
+    <t>The customers email address</t>
+  </si>
+  <si>
+    <t>This field is not being used</t>
+  </si>
+  <si>
+    <t>The last name of the customer</t>
+  </si>
+  <si>
+    <t>A unique system generated number created when the order is placed</t>
+  </si>
+  <si>
+    <t>A unique system generated number created when the payment for the order is processed</t>
+  </si>
+  <si>
+    <t>This links to the household record which is not used by NOW TV</t>
+  </si>
+  <si>
+    <t>Where the customer ordered the box from eg, the NOW TV Site. If Salesforce is shown the order is a replacement</t>
+  </si>
+  <si>
+    <t>The customers postcode</t>
+  </si>
+  <si>
+    <t>The type of order the customer has made eg NOW TV Box plus 3 months Movies</t>
+  </si>
+  <si>
+    <t>Field referenced in "Product Type" formula field</t>
+  </si>
+  <si>
+    <t>Indicates Customer Profile ID if the Customer Type is 'Existing Customer'</t>
+  </si>
+  <si>
+    <t>The amount of units the customer has ordered</t>
+  </si>
+  <si>
+    <t>This filed is used only for data processing and only for the orders created while activating the box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the status dispatched the order has been sent from the warehouse, if the status is confirmed the order is still waiting to be sent to the customer
+</t>
+  </si>
+  <si>
+    <t>The Title of the customer eg Mr, Mrs, Miss</t>
+  </si>
+  <si>
+    <t>Customer Product Element Id</t>
+  </si>
+  <si>
+    <t>Delivery Product Code</t>
+  </si>
+  <si>
+    <t>Delivery Tracking Number</t>
+  </si>
+  <si>
+    <t>Event ID</t>
+  </si>
+  <si>
+    <t>Text(255) (Unique Case Insensitive)</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Master-Detail(Order)</t>
+  </si>
+  <si>
+    <t>Order Origin</t>
+  </si>
+  <si>
+    <t>Product Serial Number</t>
+  </si>
+  <si>
+    <t>Product SKU Code</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Success Id returned from the Adobe Messaging Centre platform</t>
+  </si>
+  <si>
+    <t>To get the Order origin</t>
+  </si>
+  <si>
+    <t>This field holds the product code of a bundle from shop.nowtv.com.</t>
+  </si>
+  <si>
+    <t>Now TV STB
+A Grade Now TV STB
+Now TV Remote
+Now TV PSU
+Now TV V2 STB
+Now TV V3 STB</t>
+  </si>
+  <si>
+    <t>Confirmed
+Dispatched
+Returned</t>
+  </si>
+  <si>
+    <t>Billing Partner Name</t>
+  </si>
+  <si>
+    <t>Billing Partner Status</t>
+  </si>
+  <si>
+    <t>Event Details</t>
+  </si>
+  <si>
+    <t>Event Notification</t>
+  </si>
+  <si>
+    <t>Lookup(Event Notification)</t>
+  </si>
+  <si>
+    <t>Event Timestamp</t>
+  </si>
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Partner Name, e.g. Vodafone, Apple</t>
+  </si>
+  <si>
+    <t>What is the status of the partner? Not eligible, cancelled, expired…</t>
+  </si>
+  <si>
+    <t>details of the event, in case eligibility check is failed and why?</t>
+  </si>
+  <si>
+    <t>Link to Event Notification where this Partner Event might be originally from</t>
+  </si>
+  <si>
+    <t>what type of event? link partner, eligibility check?</t>
+  </si>
+  <si>
+    <t>Timestamp from the Event Notification record</t>
+  </si>
+  <si>
+    <t>Sky Cinema Month Pass, NOWTV-ENTS</t>
+  </si>
+  <si>
+    <t>Agent Manager Email</t>
+  </si>
+  <si>
+    <t>Agent Profile</t>
+  </si>
+  <si>
+    <t>C1-Q1</t>
+  </si>
+  <si>
+    <t>C1-Q10</t>
+  </si>
+  <si>
+    <t>C1-Q10-Notes</t>
+  </si>
+  <si>
+    <t>C1-Q10-Score</t>
+  </si>
+  <si>
+    <t>C1-Q10-Value</t>
+  </si>
+  <si>
+    <t>C1-Q1 Notes</t>
+  </si>
+  <si>
+    <t>C1-Q1 Score</t>
+  </si>
+  <si>
+    <t>C1-Q1 Value</t>
+  </si>
+  <si>
+    <t>C1-Q2</t>
+  </si>
+  <si>
+    <t>C1-Q2 Notes</t>
+  </si>
+  <si>
+    <t>C1-Q2 Score</t>
+  </si>
+  <si>
+    <t>C1-Q2 Value</t>
+  </si>
+  <si>
+    <t>C1-Q3</t>
+  </si>
+  <si>
+    <t>C1-Q3 Notes</t>
+  </si>
+  <si>
+    <t>C1-Q3 Score</t>
+  </si>
+  <si>
+    <t>C1-Q3 Value</t>
+  </si>
+  <si>
+    <t>C1-Q4</t>
+  </si>
+  <si>
+    <t>C1-Q4 Notes</t>
+  </si>
+  <si>
+    <t>C1-Q4 Score</t>
+  </si>
+  <si>
+    <t>C1-Q4 Value</t>
+  </si>
+  <si>
+    <t>C1-Q5</t>
+  </si>
+  <si>
+    <t>C1-Q5 Notes</t>
+  </si>
+  <si>
+    <t>C1-Q5 Score</t>
+  </si>
+  <si>
+    <t>C1-Q5 Value</t>
+  </si>
+  <si>
+    <t>C1-Q6</t>
+  </si>
+  <si>
+    <t>C1-Q6 Notes</t>
+  </si>
+  <si>
+    <t>C1-Q6 Score</t>
+  </si>
+  <si>
+    <t>C1-Q6 Value</t>
+  </si>
+  <si>
+    <t>C1-Q7</t>
+  </si>
+  <si>
+    <t>C1-Q7 Notes</t>
+  </si>
+  <si>
+    <t>C1-Q7 Score</t>
+  </si>
+  <si>
+    <t>C1-Q7 Value</t>
+  </si>
+  <si>
+    <t>C1-Q8</t>
+  </si>
+  <si>
+    <t>C1-Q8 Notes</t>
+  </si>
+  <si>
+    <t>C1-Q8 Score</t>
+  </si>
+  <si>
+    <t>C1-Q8 Value</t>
+  </si>
+  <si>
+    <t>C1-Q9</t>
+  </si>
+  <si>
+    <t>C1-Q9 Notes</t>
+  </si>
+  <si>
+    <t>C1-Q9 Score</t>
+  </si>
+  <si>
+    <t>C1-Q9 Value</t>
+  </si>
+  <si>
+    <t>C1-Total Score</t>
+  </si>
+  <si>
+    <t>C1-Total Value</t>
+  </si>
+  <si>
+    <t>C2-Q1</t>
+  </si>
+  <si>
+    <t>C2-Q10</t>
+  </si>
+  <si>
+    <t>C2-Q10 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q10 Score</t>
+  </si>
+  <si>
+    <t>C2-Q10 Value</t>
+  </si>
+  <si>
+    <t>C2-Q11</t>
+  </si>
+  <si>
+    <t>C2-Q11-Notes</t>
+  </si>
+  <si>
+    <t>C2-Q11-Score</t>
+  </si>
+  <si>
+    <t>C2-Q11-Value</t>
+  </si>
+  <si>
+    <t>C2-Q1 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q1 Score</t>
+  </si>
+  <si>
+    <t>C2-Q1 Value</t>
+  </si>
+  <si>
+    <t>C2-Q2</t>
+  </si>
+  <si>
+    <t>C2-Q2 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q2 Score</t>
+  </si>
+  <si>
+    <t>C2-Q2 Value</t>
+  </si>
+  <si>
+    <t>C2-Q3</t>
+  </si>
+  <si>
+    <t>C2-Q3 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q3 Score</t>
+  </si>
+  <si>
+    <t>C2-Q3 Value</t>
+  </si>
+  <si>
+    <t>C2-Q4</t>
+  </si>
+  <si>
+    <t>C2-Q4 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q4 Score</t>
+  </si>
+  <si>
+    <t>C2-Q4 Value</t>
+  </si>
+  <si>
+    <t>C2-Q5</t>
+  </si>
+  <si>
+    <t>C2-Q5 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q5 Score</t>
+  </si>
+  <si>
+    <t>C2-Q5 Value</t>
+  </si>
+  <si>
+    <t>C2-Q6</t>
+  </si>
+  <si>
+    <t>C2-Q6 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q6 Score</t>
+  </si>
+  <si>
+    <t>C2-Q6 Value</t>
+  </si>
+  <si>
+    <t>C2-Q7</t>
+  </si>
+  <si>
+    <t>C2-Q7 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q7 Score</t>
+  </si>
+  <si>
+    <t>C2-Q7 Value</t>
+  </si>
+  <si>
+    <t>C2-Q8</t>
+  </si>
+  <si>
+    <t>C2-Q8 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q8 Score</t>
+  </si>
+  <si>
+    <t>C2-Q8 Value</t>
+  </si>
+  <si>
+    <t>C2-Q9</t>
+  </si>
+  <si>
+    <t>C2-Q9 Notes</t>
+  </si>
+  <si>
+    <t>C2-Q9 Score</t>
+  </si>
+  <si>
+    <t>C2-Q9 Value</t>
+  </si>
+  <si>
+    <t>C2-Total Score</t>
+  </si>
+  <si>
+    <t>C2-Total Value</t>
+  </si>
+  <si>
+    <t>C3-Q1</t>
+  </si>
+  <si>
+    <t>C3-Q1 Notes</t>
+  </si>
+  <si>
+    <t>C3-Q1 Score</t>
+  </si>
+  <si>
+    <t>C3-Q1 Value</t>
+  </si>
+  <si>
+    <t>C3-Q2</t>
+  </si>
+  <si>
+    <t>C3-Q2 Notes</t>
+  </si>
+  <si>
+    <t>C3-Q2 Score</t>
+  </si>
+  <si>
+    <t>C3-Q2 Value</t>
+  </si>
+  <si>
+    <t>C3-Q3</t>
+  </si>
+  <si>
+    <t>C3-Q3 Notes</t>
+  </si>
+  <si>
+    <t>C3-Q3 Score</t>
+  </si>
+  <si>
+    <t>C3-Q3 Value</t>
+  </si>
+  <si>
+    <t>C3-Q4</t>
+  </si>
+  <si>
+    <t>C3-Q4 Notes</t>
+  </si>
+  <si>
+    <t>C3-Q4 Score</t>
+  </si>
+  <si>
+    <t>C3-Q4 Value</t>
+  </si>
+  <si>
+    <t>C3-Q5</t>
+  </si>
+  <si>
+    <t>C3-Q5 Notes</t>
+  </si>
+  <si>
+    <t>C3-Q5 Score</t>
+  </si>
+  <si>
+    <t>C3-Q5 Value</t>
+  </si>
+  <si>
+    <t>C3-Total Score</t>
+  </si>
+  <si>
+    <t>C3-Total Value</t>
+  </si>
+  <si>
+    <t>C4-Q1</t>
+  </si>
+  <si>
+    <t>C4-Q1 Notes</t>
+  </si>
+  <si>
+    <t>C4-Q1 Score</t>
+  </si>
+  <si>
+    <t>C4-Q1 Value</t>
+  </si>
+  <si>
+    <t>C4-Q2</t>
+  </si>
+  <si>
+    <t>C4-Q2 Notes</t>
+  </si>
+  <si>
+    <t>C4-Q2 Score</t>
+  </si>
+  <si>
+    <t>C4-Q2 Value</t>
+  </si>
+  <si>
+    <t>C4-Q3</t>
+  </si>
+  <si>
+    <t>C4-Q3 Notes</t>
+  </si>
+  <si>
+    <t>C4-Q3 Score</t>
+  </si>
+  <si>
+    <t>C4-Q3 Value</t>
+  </si>
+  <si>
+    <t>C4-Q4</t>
+  </si>
+  <si>
+    <t>C4-Q4 Notes</t>
+  </si>
+  <si>
+    <t>C4-Q4 Score</t>
+  </si>
+  <si>
+    <t>C4-Q4 Value</t>
+  </si>
+  <si>
+    <t>C4-Q5</t>
+  </si>
+  <si>
+    <t>C4-Q5 Notes</t>
+  </si>
+  <si>
+    <t>C4-Q5 Score</t>
+  </si>
+  <si>
+    <t>C4-Q5 Value</t>
+  </si>
+  <si>
+    <t>C4-Q6</t>
+  </si>
+  <si>
+    <t>C4-Q6 Notes</t>
+  </si>
+  <si>
+    <t>C4-Q6 Score</t>
+  </si>
+  <si>
+    <t>C4-Q6 Value</t>
+  </si>
+  <si>
+    <t>C4-Total Score</t>
+  </si>
+  <si>
+    <t>C4-Total Value</t>
+  </si>
+  <si>
+    <t>C5-Q1</t>
+  </si>
+  <si>
+    <t>C5-Q1 Notes</t>
+  </si>
+  <si>
+    <t>C5-Q1 Score</t>
+  </si>
+  <si>
+    <t>C5-Q1 Value</t>
+  </si>
+  <si>
+    <t>C5-Q2</t>
+  </si>
+  <si>
+    <t>C5-Q2 Notes</t>
+  </si>
+  <si>
+    <t>C5-Q2 Score</t>
+  </si>
+  <si>
+    <t>C5-Q2 Value</t>
+  </si>
+  <si>
+    <t>C5-Q3</t>
+  </si>
+  <si>
+    <t>C5-Q3 Notes</t>
+  </si>
+  <si>
+    <t>C5-Q3 Score</t>
+  </si>
+  <si>
+    <t>C5-Q3 Value</t>
+  </si>
+  <si>
+    <t>C5-Q4</t>
+  </si>
+  <si>
+    <t>C5-Q4 Notes</t>
+  </si>
+  <si>
+    <t>C5-Q4 Score</t>
+  </si>
+  <si>
+    <t>C5-Q4 Value</t>
+  </si>
+  <si>
+    <t>C5-Q5</t>
+  </si>
+  <si>
+    <t>C5-Q5 Notes</t>
+  </si>
+  <si>
+    <t>C5-Q5 Score</t>
+  </si>
+  <si>
+    <t>C5-Q5 Value</t>
+  </si>
+  <si>
+    <t>C5-Q6</t>
+  </si>
+  <si>
+    <t>C5-Q6 Notes</t>
+  </si>
+  <si>
+    <t>C5-Q6 Score</t>
+  </si>
+  <si>
+    <t>C5-Q6 Value</t>
+  </si>
+  <si>
+    <t>C5-Q7</t>
+  </si>
+  <si>
+    <t>C5-Q7 Notes</t>
+  </si>
+  <si>
+    <t>C5-Q7 Score</t>
+  </si>
+  <si>
+    <t>C5-Q7 Value</t>
+  </si>
+  <si>
+    <t>C5-Total Score</t>
+  </si>
+  <si>
+    <t>C5-Total Value</t>
+  </si>
+  <si>
+    <t>Compliance Overall Score</t>
+  </si>
+  <si>
+    <t>Connect Coaching Notes</t>
+  </si>
+  <si>
+    <t>Connect Score</t>
+  </si>
+  <si>
+    <t>Deliver Coaching Notes</t>
+  </si>
+  <si>
+    <t>Deliver Score</t>
+  </si>
+  <si>
+    <t>Inspire Coaching Notes</t>
+  </si>
+  <si>
+    <t>Inspire Score</t>
+  </si>
+  <si>
+    <t>Provide Info/Problem Solve Score</t>
+  </si>
+  <si>
+    <t>Provide Info Coaching Notes</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q10-Score</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q11-Score</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q12-Score</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q13-Score</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q14-Score</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q15-Score</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q16-Score</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q17-Score</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q18-Score</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q19-Score</t>
+  </si>
+  <si>
+    <t>Q1-Score</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q20-Score</t>
+  </si>
+  <si>
+    <t>Q2-Score</t>
+  </si>
+  <si>
+    <t>Q3-Score</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q4-Score</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q5-Score</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q6-Score</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q7-Score</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q8-Score</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q9-Score</t>
+  </si>
+  <si>
+    <t>Quality Connect Value</t>
+  </si>
+  <si>
+    <t>Quality Deliver Value</t>
+  </si>
+  <si>
+    <t>Quality Info Problem Value</t>
+  </si>
+  <si>
+    <t>Quality Inspire Value</t>
+  </si>
+  <si>
+    <t>Quality Overall Percent</t>
+  </si>
+  <si>
+    <t>Formula (Percent) </t>
+  </si>
+  <si>
+    <t>Quality Overall Score</t>
+  </si>
+  <si>
+    <t>Quality Overall Value</t>
+  </si>
+  <si>
+    <t>Quality Understand Value</t>
+  </si>
+  <si>
+    <t>Score Week</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Understand Coaching Notes</t>
+  </si>
+  <si>
+    <t>Understand Score</t>
+  </si>
+  <si>
+    <t>Agent who score against</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2344,6 +3717,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2378,7 +3759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2410,6 +3791,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2684,6 +4072,671 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="26936700" y="2717800"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="hecked"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4127500" y="850900"/>
+          <a:ext cx="266700" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="1054100"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9385300"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="18732500"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="23202900"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="28486100"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="34582100"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="hecked"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4127500" y="34988500"/>
+          <a:ext cx="266700" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="35191700"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="46164500"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="46570900"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="https://cs86.salesforce.com/s.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="47993300"/>
           <a:ext cx="12700" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3606,6 +5659,466 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="https://cs86.salesforce.com/s.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6540500"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="2273300"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="4508500"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="6540500"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="1460500"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="2070100"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="2679700"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="his formula references multiple objects"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="2032000"/>
+          <a:ext cx="12700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11949,7 +14462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -12435,6 +14948,6847 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>732</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>722</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>734</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>735</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>736</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>737</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>738</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>663</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>663</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>619</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>739</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>557</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>740</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>741</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>742</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>743</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>744</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>745</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>746</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>831</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>832</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>833</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>834</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>835</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>837</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>838</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>839</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>840</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>841</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>842</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>844</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>414</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>846</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>847</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>848</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>849</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>850</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>851</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>852</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>616</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>853</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>783</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>855</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>856</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>857</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>858</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>619</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>786</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>859</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>860</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>862</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>892</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>841</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>842</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>846</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>897</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>898</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>899</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>783</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>900</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>907</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>909</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S236"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>923</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>924</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>926</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>927</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>928</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>929</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>930</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>931</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>932</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>933</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>934</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>935</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>936</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>937</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>938</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>939</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>940</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>941</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>942</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>943</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>944</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>945</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>946</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>947</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>948</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>950</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>951</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>952</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>953</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>954</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>955</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>956</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>957</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>958</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>959</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>960</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>961</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>962</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>963</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>964</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>965</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>966</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>967</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>968</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>969</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>970</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>971</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>972</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>973</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>974</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>975</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>976</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>977</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>978</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>979</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>980</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>981</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>982</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>983</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>984</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>985</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>986</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>987</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>988</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>989</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>990</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>991</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>992</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>993</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>994</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>995</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>996</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>997</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>998</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>999</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="12"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="12"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" s="12"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="12"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C161" s="12"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163" s="12"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="12"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C165" s="12"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" s="12"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C167" s="12"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C169" s="12"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="12"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C172" s="12"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>319</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" s="12"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C175" s="12"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="12"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C179" s="12"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C182" s="12"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>648</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C183" s="12"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C184" s="12"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="12"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C186" s="12"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="12"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C188" s="12"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C190" s="12"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="12"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C192" s="12"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="12"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C194" s="12"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="12"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C196" s="12"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="12"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C198" s="12"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="12"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C200" s="12"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="6"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="12"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C202" s="12"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="12"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="12"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C205" s="12"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C206" s="12"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="12"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="12"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>651</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C209" s="12"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="12"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C211" s="12"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="12"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C213" s="12"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="12"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C215" s="12"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="12"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C217" s="12"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="12"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C219" s="12"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="6"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="12"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C221" s="12"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="12"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C223" s="12"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C224" s="12"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C225" s="12"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C226" s="12"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C227" s="12"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C228" s="12"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C229" s="12"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C230" s="12"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="12"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="6"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C232" s="12"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" s="12"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C234" s="12"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="12"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
